--- a/Vaccination/Dataset(LGA weekly)/LGA Dose 1(Aggregated).xlsx
+++ b/Vaccination/Dataset(LGA weekly)/LGA Dose 1(Aggregated).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="355">
   <si>
     <t>LGA 2019 Name of Residence</t>
   </si>
@@ -28,12 +28,15 @@
     <t>Population</t>
   </si>
   <si>
+    <t>18-october-2021</t>
+  </si>
+  <si>
+    <t>4-october-2021</t>
+  </si>
+  <si>
     <t>11-october-2021</t>
   </si>
   <si>
-    <t>4-october-2021</t>
-  </si>
-  <si>
     <t>27-september-2021-0</t>
   </si>
   <si>
@@ -454,27 +457,321 @@
     <t>Very Remote Australia - see note and refer to SA4 data</t>
   </si>
   <si>
+    <t>94.6%</t>
+  </si>
+  <si>
+    <t>86.4%</t>
+  </si>
+  <si>
+    <t>93.7%</t>
+  </si>
+  <si>
+    <t>86.3%</t>
+  </si>
+  <si>
+    <t>93.1%</t>
+  </si>
+  <si>
+    <t>88.8%</t>
+  </si>
+  <si>
+    <t>&gt;95%</t>
+  </si>
+  <si>
+    <t>91.6%</t>
+  </si>
+  <si>
+    <t>92.0%</t>
+  </si>
+  <si>
+    <t>86.9%</t>
+  </si>
+  <si>
+    <t>91.9%</t>
+  </si>
+  <si>
+    <t>80.4%</t>
+  </si>
+  <si>
+    <t>93.3%</t>
+  </si>
+  <si>
+    <t>85.3%</t>
+  </si>
+  <si>
+    <t>91.2%</t>
+  </si>
+  <si>
+    <t>92.4%</t>
+  </si>
+  <si>
+    <t>91.3%</t>
+  </si>
+  <si>
+    <t>94.5%</t>
+  </si>
+  <si>
+    <t>93.2%</t>
+  </si>
+  <si>
+    <t>66.1%</t>
+  </si>
+  <si>
+    <t>92.8%</t>
+  </si>
+  <si>
+    <t>93.6%</t>
+  </si>
+  <si>
+    <t>89.1%</t>
+  </si>
+  <si>
+    <t>94.8%</t>
+  </si>
+  <si>
+    <t>87.6%</t>
+  </si>
+  <si>
+    <t>94.9%</t>
+  </si>
+  <si>
+    <t>88.5%</t>
+  </si>
+  <si>
+    <t>82.3%</t>
+  </si>
+  <si>
+    <t>87.4%</t>
+  </si>
+  <si>
+    <t>92.5%</t>
+  </si>
+  <si>
+    <t>86.2%</t>
+  </si>
+  <si>
+    <t>91.7%</t>
+  </si>
+  <si>
+    <t>88.6%</t>
+  </si>
+  <si>
+    <t>89.6%</t>
+  </si>
+  <si>
+    <t>92.6%</t>
+  </si>
+  <si>
+    <t>90.5%</t>
+  </si>
+  <si>
+    <t>83.8%</t>
+  </si>
+  <si>
+    <t>91.4%</t>
+  </si>
+  <si>
+    <t>88.1%</t>
+  </si>
+  <si>
+    <t>92.7%</t>
+  </si>
+  <si>
+    <t>84.6%</t>
+  </si>
+  <si>
+    <t>93.9%</t>
+  </si>
+  <si>
+    <t>94.0%</t>
+  </si>
+  <si>
+    <t>80.1%</t>
+  </si>
+  <si>
+    <t>90.8%</t>
+  </si>
+  <si>
+    <t>94.2%</t>
+  </si>
+  <si>
+    <t>74.0%</t>
+  </si>
+  <si>
+    <t>95.0%</t>
+  </si>
+  <si>
+    <t>84.7%</t>
+  </si>
+  <si>
+    <t>86.1%</t>
+  </si>
+  <si>
+    <t>93.8%</t>
+  </si>
+  <si>
+    <t>93.5%</t>
+  </si>
+  <si>
+    <t>85.1%</t>
+  </si>
+  <si>
+    <t>88.9%</t>
+  </si>
+  <si>
+    <t>90.3%</t>
+  </si>
+  <si>
+    <t>89.2%</t>
+  </si>
+  <si>
+    <t>81.5%</t>
+  </si>
+  <si>
+    <t>87.1%</t>
+  </si>
+  <si>
+    <t>89.9%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
+  </si>
+  <si>
+    <t>89.3%</t>
+  </si>
+  <si>
+    <t>83.0%</t>
+  </si>
+  <si>
+    <t>88.7%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
+    <t>83.3%</t>
+  </si>
+  <si>
+    <t>83.7%</t>
+  </si>
+  <si>
+    <t>83.9%</t>
+  </si>
+  <si>
+    <t>84.0%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>92.1%</t>
+  </si>
+  <si>
+    <t>88.4%</t>
+  </si>
+  <si>
+    <t>60.3%</t>
+  </si>
+  <si>
+    <t>90.1%</t>
+  </si>
+  <si>
+    <t>87.0%</t>
+  </si>
+  <si>
+    <t>87.8%</t>
+  </si>
+  <si>
+    <t>85.6%</t>
+  </si>
+  <si>
+    <t>89.0%</t>
+  </si>
+  <si>
+    <t>91.5%</t>
+  </si>
+  <si>
+    <t>80.8%</t>
+  </si>
+  <si>
+    <t>81.3%</t>
+  </si>
+  <si>
+    <t>77.0%</t>
+  </si>
+  <si>
+    <t>85.7%</t>
+  </si>
+  <si>
+    <t>77.7%</t>
+  </si>
+  <si>
+    <t>90.4%</t>
+  </si>
+  <si>
+    <t>81.9%</t>
+  </si>
+  <si>
+    <t>89.7%</t>
+  </si>
+  <si>
+    <t>87.3%</t>
+  </si>
+  <si>
+    <t>79.6%</t>
+  </si>
+  <si>
+    <t>90.0%</t>
+  </si>
+  <si>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>94.1%</t>
+  </si>
+  <si>
+    <t>82.9%</t>
+  </si>
+  <si>
+    <t>90.7%</t>
+  </si>
+  <si>
+    <t>88.3%</t>
+  </si>
+  <si>
+    <t>78.1%</t>
+  </si>
+  <si>
+    <t>78.7%</t>
+  </si>
+  <si>
+    <t>87.2%</t>
+  </si>
+  <si>
+    <t>71.4%</t>
+  </si>
+  <si>
+    <t>80.2%</t>
+  </si>
+  <si>
+    <t>92.3%</t>
+  </si>
+  <si>
+    <t>82.6%</t>
+  </si>
+  <si>
+    <t>91.8%</t>
+  </si>
+  <si>
     <t>89.8%</t>
   </si>
   <si>
-    <t>83.8%</t>
-  </si>
-  <si>
-    <t>90.3%</t>
-  </si>
-  <si>
     <t>82.5%</t>
   </si>
   <si>
-    <t>91.7%</t>
-  </si>
-  <si>
     <t>87.5%</t>
   </si>
   <si>
-    <t>&gt;95%</t>
-  </si>
-  <si>
     <t>88.0%</t>
   </si>
   <si>
@@ -487,147 +784,39 @@
     <t>75.7%</t>
   </si>
   <si>
-    <t>91.5%</t>
-  </si>
-  <si>
     <t>84.4%</t>
   </si>
   <si>
-    <t>89.9%</t>
-  </si>
-  <si>
     <t>93.0%</t>
   </si>
   <si>
-    <t>89.1%</t>
-  </si>
-  <si>
-    <t>87.1%</t>
-  </si>
-  <si>
-    <t>90.0%</t>
-  </si>
-  <si>
-    <t>92.8%</t>
-  </si>
-  <si>
-    <t>94.8%</t>
-  </si>
-  <si>
-    <t>92.7%</t>
-  </si>
-  <si>
     <t>62.7%</t>
   </si>
   <si>
-    <t>91.6%</t>
-  </si>
-  <si>
-    <t>91.8%</t>
-  </si>
-  <si>
-    <t>88.1%</t>
-  </si>
-  <si>
     <t>89.4%</t>
   </si>
   <si>
-    <t>92.3%</t>
-  </si>
-  <si>
-    <t>89.3%</t>
-  </si>
-  <si>
-    <t>94.6%</t>
-  </si>
-  <si>
-    <t>92.6%</t>
-  </si>
-  <si>
-    <t>85.6%</t>
-  </si>
-  <si>
-    <t>93.5%</t>
-  </si>
-  <si>
-    <t>87.6%</t>
-  </si>
-  <si>
     <t>81.7%</t>
   </si>
   <si>
     <t>83.6%</t>
   </si>
   <si>
-    <t>80.1%</t>
-  </si>
-  <si>
-    <t>88.8%</t>
-  </si>
-  <si>
     <t>94.7%</t>
   </si>
   <si>
     <t>82.1%</t>
   </si>
   <si>
-    <t>95.0%</t>
-  </si>
-  <si>
-    <t>91.3%</t>
-  </si>
-  <si>
     <t>86.6%</t>
   </si>
   <si>
     <t>84.8%</t>
   </si>
   <si>
-    <t>91.2%</t>
-  </si>
-  <si>
-    <t>87.8%</t>
-  </si>
-  <si>
-    <t>92.1%</t>
-  </si>
-  <si>
-    <t>93.7%</t>
-  </si>
-  <si>
     <t>91.1%</t>
   </si>
   <si>
-    <t>94.9%</t>
-  </si>
-  <si>
-    <t>81.3%</t>
-  </si>
-  <si>
-    <t>90.8%</t>
-  </si>
-  <si>
-    <t>88.5%</t>
-  </si>
-  <si>
-    <t>90.7%</t>
-  </si>
-  <si>
-    <t>89.0%</t>
-  </si>
-  <si>
-    <t>83.9%</t>
-  </si>
-  <si>
-    <t>93.9%</t>
-  </si>
-  <si>
-    <t>91.4%</t>
-  </si>
-  <si>
-    <t>92.5%</t>
-  </si>
-  <si>
     <t>94.4%</t>
   </si>
   <si>
@@ -637,174 +826,21 @@
     <t>83.1%</t>
   </si>
   <si>
-    <t>89.7%</t>
-  </si>
-  <si>
     <t>92.9%</t>
   </si>
   <si>
-    <t>90.1%</t>
-  </si>
-  <si>
     <t>72.7%</t>
   </si>
   <si>
-    <t>92.4%</t>
-  </si>
-  <si>
     <t>81.1%</t>
   </si>
   <si>
     <t>83.2%</t>
   </si>
   <si>
-    <t>90.5%</t>
-  </si>
-  <si>
     <t>84.1%</t>
   </si>
   <si>
-    <t>85.1%</t>
-  </si>
-  <si>
-    <t>88.7%</t>
-  </si>
-  <si>
-    <t>88.6%</t>
-  </si>
-  <si>
-    <t>94.2%</t>
-  </si>
-  <si>
-    <t>86.2%</t>
-  </si>
-  <si>
-    <t>81.5%</t>
-  </si>
-  <si>
-    <t>80.4%</t>
-  </si>
-  <si>
-    <t>86.1%</t>
-  </si>
-  <si>
-    <t>84.2%</t>
-  </si>
-  <si>
-    <t>83.0%</t>
-  </si>
-  <si>
-    <t>72.0%</t>
-  </si>
-  <si>
-    <t>89.6%</t>
-  </si>
-  <si>
-    <t>83.3%</t>
-  </si>
-  <si>
-    <t>83.7%</t>
-  </si>
-  <si>
-    <t>84.0%</t>
-  </si>
-  <si>
-    <t>90.2%</t>
-  </si>
-  <si>
-    <t>94.5%</t>
-  </si>
-  <si>
-    <t>88.4%</t>
-  </si>
-  <si>
-    <t>60.3%</t>
-  </si>
-  <si>
-    <t>87.0%</t>
-  </si>
-  <si>
-    <t>80.8%</t>
-  </si>
-  <si>
-    <t>77.0%</t>
-  </si>
-  <si>
-    <t>85.7%</t>
-  </si>
-  <si>
-    <t>93.1%</t>
-  </si>
-  <si>
-    <t>77.7%</t>
-  </si>
-  <si>
-    <t>90.4%</t>
-  </si>
-  <si>
-    <t>81.9%</t>
-  </si>
-  <si>
-    <t>86.4%</t>
-  </si>
-  <si>
-    <t>85.3%</t>
-  </si>
-  <si>
-    <t>87.3%</t>
-  </si>
-  <si>
-    <t>79.6%</t>
-  </si>
-  <si>
-    <t>80.9%</t>
-  </si>
-  <si>
-    <t>94.1%</t>
-  </si>
-  <si>
-    <t>82.9%</t>
-  </si>
-  <si>
-    <t>88.9%</t>
-  </si>
-  <si>
-    <t>88.3%</t>
-  </si>
-  <si>
-    <t>78.1%</t>
-  </si>
-  <si>
-    <t>78.7%</t>
-  </si>
-  <si>
-    <t>91.9%</t>
-  </si>
-  <si>
-    <t>87.2%</t>
-  </si>
-  <si>
-    <t>86.3%</t>
-  </si>
-  <si>
-    <t>93.8%</t>
-  </si>
-  <si>
-    <t>71.4%</t>
-  </si>
-  <si>
-    <t>80.2%</t>
-  </si>
-  <si>
-    <t>87.4%</t>
-  </si>
-  <si>
-    <t>82.6%</t>
-  </si>
-  <si>
-    <t>89.2%</t>
-  </si>
-  <si>
     <t>78.2%</t>
   </si>
   <si>
@@ -814,9 +850,6 @@
     <t>79.7%</t>
   </si>
   <si>
-    <t>86.9%</t>
-  </si>
-  <si>
     <t>95.3%</t>
   </si>
   <si>
@@ -856,9 +889,6 @@
     <t>95.4%</t>
   </si>
   <si>
-    <t>82.3%</t>
-  </si>
-  <si>
     <t>84.5%</t>
   </si>
   <si>
@@ -982,9 +1012,6 @@
     <t>72.1%</t>
   </si>
   <si>
-    <t>84.7%</t>
-  </si>
-  <si>
     <t>89.5%</t>
   </si>
   <si>
@@ -1001,9 +1028,6 @@
   </si>
   <si>
     <t>68.2%</t>
-  </si>
-  <si>
-    <t>84.6%</t>
   </si>
   <si>
     <t>72.2%</t>
@@ -1412,13 +1436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,4717 +1476,5080 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>43782</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2">
         <v>0.6982778310721302</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.6910504597118656</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.634</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3">
         <v>25368</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3">
+        <v>275</v>
+      </c>
+      <c r="J3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3">
         <v>0.6894118574582151</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.6512493718879905</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.589</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>37124</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="J4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4">
         <v>0.7321139963366017</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.6456165247555976</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.595</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>1859</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5">
+        <v>276</v>
+      </c>
+      <c r="J5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5">
         <v>0.5841850457235074</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.6840588298674711</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.624</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>35111</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6">
+        <v>264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6">
         <v>0.7786163880265444</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.5110274341043571</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.439</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>150746</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7">
         <v>0.7865681344778634</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.6696192076557205</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.586</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>28912</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8">
+        <v>202</v>
+      </c>
+      <c r="J8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8">
         <v>0.8026770890979524</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.7392103273055338</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.631</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>10692</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
-      </c>
-      <c r="J9">
+        <v>277</v>
+      </c>
+      <c r="J9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9">
         <v>0.7319491208380098</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.758508577753182</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.702</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>7307</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10">
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10">
         <v>0.7813055973723827</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.6950056116722784</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.643</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>289214</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J11">
+        <v>278</v>
+      </c>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11">
         <v>0.8952609486401073</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.7187628301628576</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.661</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <v>4773</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J12">
+        <v>279</v>
+      </c>
+      <c r="J12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K12">
         <v>0.7420909281374398</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.8572475744604341</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.738</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E13">
         <v>5867</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13">
+        <v>162</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13">
         <v>0.8010908471109596</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.703540750052378</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>64784</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14">
+        <v>205</v>
+      </c>
+      <c r="J14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14">
         <v>0.8246017535193875</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.7078575080961309</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.635</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>2035</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.7785255618671276</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.702</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>1930</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>1231</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>14532</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I18" t="s">
-        <v>240</v>
-      </c>
-      <c r="J18">
+        <v>280</v>
+      </c>
+      <c r="J18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18">
         <v>0.7341040462427745</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <v>35639</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
-      </c>
-      <c r="J19">
+        <v>264</v>
+      </c>
+      <c r="J19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19">
         <v>0.8191307275737254</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.6663225984035231</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.572</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>29052</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
-      </c>
-      <c r="J20">
+        <v>281</v>
+      </c>
+      <c r="J20" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20">
         <v>0.5591353435219606</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.7795112096298997</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21">
         <v>10765</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
-      </c>
-      <c r="J21">
+        <v>252</v>
+      </c>
+      <c r="J21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21">
         <v>0.8044588945657223</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.5217196750654</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.472</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>76539</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22">
+        <v>282</v>
+      </c>
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22">
         <v>0.9153764747383687</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.7217835578262889</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.613</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>133449</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
-      </c>
-      <c r="J23">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23">
         <v>0.8713216284872871</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.8623316217875854</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.695</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24">
         <v>80727</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24">
+        <v>283</v>
+      </c>
+      <c r="J24" t="s">
+        <v>320</v>
+      </c>
+      <c r="K24">
         <v>0.7701512505109813</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.8253265292358879</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.715</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>301492</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
-      </c>
-      <c r="J25">
+        <v>284</v>
+      </c>
+      <c r="J25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25">
         <v>0.8097329282369018</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.7363955058406729</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.645</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>2195</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.7666770594244623</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.662</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>279484</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
-      </c>
-      <c r="J27">
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27">
         <v>0.7757152466688612</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>1451</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.7200233287057578</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.652</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29">
         <v>47375</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="H29" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>312</v>
-      </c>
-      <c r="J29">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K29">
         <v>0.6336042216358839</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>42953</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30">
         <v>0.690871417595977</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.5746068601583113</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.501</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>3621</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.6388377994552185</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.573</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E32">
         <v>62689</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
-      </c>
-      <c r="J32">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32">
         <v>0.6743926366667199</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>3477</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
-      </c>
-      <c r="J33">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K33">
         <v>0.7561115904515386</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.6262821228604699</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.5669999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>3075</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.6784584411849295</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.629</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E35">
         <v>9187</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
-      </c>
-      <c r="J35">
+        <v>224</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35">
         <v>0.8354196146729074</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36">
         <v>10456</v>
       </c>
       <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" t="s">
         <v>152</v>
       </c>
-      <c r="G36" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" t="s">
-        <v>216</v>
-      </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36">
         <v>0.8019319051262433</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.7572657015347775</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.697</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37">
         <v>192534</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37">
+        <v>221</v>
+      </c>
+      <c r="J37" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37">
         <v>0.8182866402817165</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.7374713083397093</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.624</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38">
         <v>42195</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
-      </c>
-      <c r="J38">
+        <v>178</v>
+      </c>
+      <c r="J38" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38">
         <v>0.843772958881384</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.773660756022313</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.646</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39">
         <v>7623</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
-      </c>
-      <c r="J39">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39">
         <v>0.7330447330447331</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.7756843227870601</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.645</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40">
         <v>7426</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40">
         <v>0.519122003770536</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.6841138659320477</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.628</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41">
         <v>32891</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
-      </c>
-      <c r="J41">
+        <v>164</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41">
         <v>0.8502325864218176</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.4702396983571236</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.417</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E42">
         <v>172126</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
-        <v>316</v>
-      </c>
-      <c r="J42">
+        <v>252</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42">
         <v>0.8087854246307937</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.7896689063877657</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.722</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E43">
         <v>10325</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>317</v>
-      </c>
-      <c r="J43">
+        <v>249</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43">
         <v>0.7995157384987894</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.7683847878879425</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.648</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44">
         <v>7865</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
-        <v>273</v>
-      </c>
-      <c r="J44">
+        <v>173</v>
+      </c>
+      <c r="J44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44">
         <v>0.8292434837889384</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.7410169491525423</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.665</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45">
         <v>133798</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>206</v>
-      </c>
-      <c r="J45">
+        <v>289</v>
+      </c>
+      <c r="J45" t="s">
+        <v>269</v>
+      </c>
+      <c r="K45">
         <v>0.799466359736319</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.7821996185632549</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.61</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>3346</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
-      </c>
-      <c r="J46">
+        <v>290</v>
+      </c>
+      <c r="J46" t="s">
+        <v>270</v>
+      </c>
+      <c r="K46">
         <v>0.9043634190077705</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.7433593925170778</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.65</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>7359</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
-      </c>
-      <c r="J47">
+        <v>174</v>
+      </c>
+      <c r="J47" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47">
         <v>0.7339312406576981</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.8290496114763897</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.698</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48">
         <v>25395</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>297</v>
-      </c>
-      <c r="J48">
+        <v>174</v>
+      </c>
+      <c r="J48" t="s">
+        <v>307</v>
+      </c>
+      <c r="K48">
         <v>0.6957668832447332</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.6788965892104907</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.62</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>8458</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="I49" t="s">
-        <v>318</v>
-      </c>
-      <c r="J49">
+        <v>234</v>
+      </c>
+      <c r="J49" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49">
         <v>0.6863324663040908</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.647765308131522</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.572</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>21512</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H50" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="I50" t="s">
-        <v>319</v>
-      </c>
-      <c r="J50">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50">
         <v>0.7204351059873559</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.6305273114211397</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.572</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E51">
         <v>9949</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>320</v>
-      </c>
-      <c r="J51">
+        <v>234</v>
+      </c>
+      <c r="J51" t="s">
+        <v>330</v>
+      </c>
+      <c r="K51">
         <v>0.6771534827620866</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>0.6569356638155448</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0.577</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52">
         <v>4307</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I52" t="s">
-        <v>321</v>
-      </c>
-      <c r="J52">
+        <v>276</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52">
         <v>0.6568377060599024</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>0.6292089657251985</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.528</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>54071</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="H53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I53" t="s">
-        <v>322</v>
-      </c>
-      <c r="J53">
+        <v>173</v>
+      </c>
+      <c r="J53" t="s">
+        <v>195</v>
+      </c>
+      <c r="K53">
         <v>0.801520223409961</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>0.6115625725563036</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0.5639999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>2422</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>323</v>
-      </c>
-      <c r="J54">
+        <v>292</v>
+      </c>
+      <c r="J54" t="s">
+        <v>332</v>
+      </c>
+      <c r="K54">
         <v>0.8480594549958712</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>0.7473137171496737</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>0.656</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>14962</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
-      </c>
-      <c r="J55">
+        <v>163</v>
+      </c>
+      <c r="J55" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55">
         <v>0.7831840663012967</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>0.8063583815028902</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.73</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>122259</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
-      </c>
-      <c r="J56">
+        <v>153</v>
+      </c>
+      <c r="J56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56">
         <v>0.8885235442789488</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>0.7200240609544178</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.654</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>12189</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="I57" t="s">
-        <v>200</v>
-      </c>
-      <c r="J57">
+        <v>228</v>
+      </c>
+      <c r="J57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K57">
         <v>0.810074657478054</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>0.8494016800399152</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.769</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>171244</v>
       </c>
       <c r="F58" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="I58" t="s">
         <v>293</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58">
         <v>0.7556293943145455</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>0.7781606366395931</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>0.715</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59">
         <v>13454</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
-      </c>
-      <c r="J59">
+        <v>294</v>
+      </c>
+      <c r="J59" t="s">
+        <v>244</v>
+      </c>
+      <c r="K59">
         <v>0.6577226103760964</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>0.7243815841722921</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.655</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60">
         <v>5520</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
-      </c>
-      <c r="J60">
+        <v>295</v>
+      </c>
+      <c r="J60" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60">
         <v>0.6331521739130435</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>0.5976661215995243</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>0.542</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61">
         <v>24440</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H61" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="I61" t="s">
-        <v>288</v>
-      </c>
-      <c r="J61">
+        <v>296</v>
+      </c>
+      <c r="J61" t="s">
+        <v>298</v>
+      </c>
+      <c r="K61">
         <v>0.6946808510638297</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>0.5702898550724638</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>0.513</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62">
         <v>19363</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
-      </c>
-      <c r="J62">
+        <v>180</v>
+      </c>
+      <c r="J62" t="s">
+        <v>254</v>
+      </c>
+      <c r="K62">
         <v>0.8020451376336311</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>0.6354746317512275</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.5620000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63">
         <v>101869</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I63" t="s">
-        <v>325</v>
-      </c>
-      <c r="J63">
+        <v>153</v>
+      </c>
+      <c r="J63" t="s">
+        <v>334</v>
+      </c>
+      <c r="K63">
         <v>0.9063404961273793</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>0.7693022775396374</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>0.718</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E64">
         <v>7285</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="H64" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="I64" t="s">
-        <v>326</v>
-      </c>
-      <c r="J64">
+        <v>297</v>
+      </c>
+      <c r="J64" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64">
         <v>0.6709677419354839</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>0.8691456674748942</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>0.794</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>4668</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="I65" t="s">
-        <v>327</v>
-      </c>
-      <c r="J65">
+        <v>151</v>
+      </c>
+      <c r="J65" t="s">
+        <v>336</v>
+      </c>
+      <c r="K65">
         <v>0.8787489288774636</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>0.620178448867536</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E66">
         <v>167047</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="I66" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66">
+        <v>289</v>
+      </c>
+      <c r="J66" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66">
         <v>0.7418690548169078</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>0.8067694944301628</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>0.703</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67">
         <v>32784</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I67" t="s">
-        <v>220</v>
-      </c>
-      <c r="J67">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>177</v>
+      </c>
+      <c r="K67">
         <v>0.8323267447535383</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>0.6838195238465821</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.623</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>9024</v>
       </c>
       <c r="F68" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="I68" t="s">
-        <v>258</v>
-      </c>
-      <c r="J68">
+        <v>227</v>
+      </c>
+      <c r="J68" t="s">
+        <v>244</v>
+      </c>
+      <c r="K68">
         <v>0.6524822695035462</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>0.7954795021961932</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.717</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69">
         <v>35892</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="I69" t="s">
-        <v>328</v>
-      </c>
-      <c r="J69">
+        <v>298</v>
+      </c>
+      <c r="J69" t="s">
+        <v>337</v>
+      </c>
+      <c r="K69">
         <v>0.6261283851554663</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>0.5971852836879432</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>0.549</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E70">
         <v>17865</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="I70" t="s">
-        <v>295</v>
-      </c>
-      <c r="J70">
+        <v>274</v>
+      </c>
+      <c r="J70" t="s">
+        <v>305</v>
+      </c>
+      <c r="K70">
         <v>0.7191155891407781</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>0.5779282291318401</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>0.516</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71">
         <v>176376</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H71" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
-      </c>
-      <c r="J71">
+        <v>171</v>
+      </c>
+      <c r="J71" t="s">
+        <v>187</v>
+      </c>
+      <c r="K71">
         <v>0.8051775751802968</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>0.64858662188637</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>0.583</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E72">
         <v>6396</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="I72" t="s">
-        <v>330</v>
-      </c>
-      <c r="J72">
+        <v>299</v>
+      </c>
+      <c r="J72" t="s">
+        <v>338</v>
+      </c>
+      <c r="K72">
         <v>0.6794871794871795</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>0.7579035696466639</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.639</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73">
         <v>2585</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>331</v>
-      </c>
-      <c r="J73">
+        <v>286</v>
+      </c>
+      <c r="J73" t="s">
+        <v>339</v>
+      </c>
+      <c r="K73">
         <v>0.7617021276595743</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>0.6158536585365854</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.541</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>66688</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="H74" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="I74" t="s">
-        <v>332</v>
-      </c>
-      <c r="J74">
+        <v>300</v>
+      </c>
+      <c r="J74" t="s">
+        <v>340</v>
+      </c>
+      <c r="K74">
         <v>0.6961222408829175</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>0.6982591876208897</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>0.645</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E75">
         <v>79221</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H75" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="I75" t="s">
-        <v>333</v>
-      </c>
-      <c r="J75">
+        <v>301</v>
+      </c>
+      <c r="J75" t="s">
+        <v>341</v>
+      </c>
+      <c r="K75">
         <v>0.735423688163492</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>0.6394253838771593</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>0.571</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76">
         <v>19963</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="H76" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="I76" t="s">
-        <v>266</v>
-      </c>
-      <c r="J76">
+        <v>249</v>
+      </c>
+      <c r="J76" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76">
         <v>0.8149075790211892</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>0.6888956211105641</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>0.633</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E77">
         <v>10216</v>
       </c>
       <c r="F77" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H77" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="I77" t="s">
-        <v>334</v>
-      </c>
-      <c r="J77">
+        <v>302</v>
+      </c>
+      <c r="J77" t="s">
+        <v>342</v>
+      </c>
+      <c r="K77">
         <v>0.6571064996084574</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>0.7449281170164805</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>0.513</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E78">
         <v>25604</v>
       </c>
       <c r="F78" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I78" t="s">
-        <v>243</v>
-      </c>
-      <c r="J78">
+        <v>173</v>
+      </c>
+      <c r="J78" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78">
         <v>0.8406889548508045</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>0.6033672670321065</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0.527</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79">
         <v>9910</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I79" t="s">
-        <v>152</v>
-      </c>
-      <c r="J79">
+        <v>153</v>
+      </c>
+      <c r="J79" t="s">
+        <v>153</v>
+      </c>
+      <c r="K79">
         <v>0.9359233097880928</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>0.8121387283236994</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>0.749</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E80">
         <v>3114</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I80" t="s">
-        <v>210</v>
-      </c>
-      <c r="J80">
+        <v>303</v>
+      </c>
+      <c r="J80" t="s">
+        <v>271</v>
+      </c>
+      <c r="K80">
         <v>0.6772639691714836</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>0.8607467204843592</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>0.791</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81">
         <v>12673</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G81" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="H81" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
-      </c>
-      <c r="J81">
+        <v>304</v>
+      </c>
+      <c r="J81" t="s">
+        <v>343</v>
+      </c>
+      <c r="K81">
         <v>0.6296062495068254</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>0.6278098908156712</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>0.5570000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E82">
         <v>16485</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G82" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="I82" t="s">
-        <v>336</v>
-      </c>
-      <c r="J82">
+        <v>277</v>
+      </c>
+      <c r="J82" t="s">
+        <v>344</v>
+      </c>
+      <c r="K82">
         <v>0.6979071883530482</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>0.5389410557878955</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>0.471</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83">
         <v>10213</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H83" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="I83" t="s">
-        <v>259</v>
-      </c>
-      <c r="J83">
+        <v>213</v>
+      </c>
+      <c r="J83" t="s">
+        <v>245</v>
+      </c>
+      <c r="K83">
         <v>0.6748262018995398</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>0.6524112829845314</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>0.602</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E84">
         <v>4651</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G84" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="I84" t="s">
-        <v>305</v>
-      </c>
-      <c r="J84">
+        <v>277</v>
+      </c>
+      <c r="J84" t="s">
+        <v>315</v>
+      </c>
+      <c r="K84">
         <v>0.6768436895291335</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>0.5986487809654362</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>0.504</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85">
         <v>5093</v>
       </c>
       <c r="F85" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H85" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I85" t="s">
-        <v>209</v>
-      </c>
-      <c r="J85">
+        <v>292</v>
+      </c>
+      <c r="J85" t="s">
+        <v>219</v>
+      </c>
+      <c r="K85">
         <v>0.8541134891026899</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>0.6183616426574929</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>0.571</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>137452</v>
       </c>
       <c r="F86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" t="s">
         <v>199</v>
       </c>
-      <c r="G86" t="s">
-        <v>216</v>
-      </c>
       <c r="H86" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="I86" t="s">
-        <v>336</v>
-      </c>
-      <c r="J86">
+        <v>305</v>
+      </c>
+      <c r="J86" t="s">
+        <v>344</v>
+      </c>
+      <c r="K86">
         <v>0.7015830980997002</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>0.7938346750441783</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>0.6879999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87">
         <v>65324</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="I87" t="s">
-        <v>205</v>
-      </c>
-      <c r="J87">
+        <v>226</v>
+      </c>
+      <c r="J87" t="s">
+        <v>268</v>
+      </c>
+      <c r="K87">
         <v>0.7663186577674361</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>0.64974682070832</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>0.588</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88">
         <v>221234</v>
       </c>
       <c r="F88" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I88" t="s">
-        <v>337</v>
-      </c>
-      <c r="J88">
+        <v>182</v>
+      </c>
+      <c r="J88" t="s">
+        <v>345</v>
+      </c>
+      <c r="K88">
         <v>0.8465380547293816</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>0.7292113159022717</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>0.661</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89">
         <v>4472</v>
       </c>
       <c r="F89" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H89" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="I89" t="s">
-        <v>236</v>
-      </c>
-      <c r="J89">
+        <v>286</v>
+      </c>
+      <c r="J89" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89">
         <v>0.7795169946332737</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>0.8032580887205403</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>0.713</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90">
         <v>33170</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="I90" t="s">
-        <v>209</v>
-      </c>
-      <c r="J90">
+        <v>197</v>
+      </c>
+      <c r="J90" t="s">
+        <v>219</v>
+      </c>
+      <c r="K90">
         <v>0.8530599939704552</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>0.6987924865831843</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>0.618</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91">
         <v>11785</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="G91" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H91" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I91" t="s">
-        <v>281</v>
-      </c>
-      <c r="J91">
+        <v>279</v>
+      </c>
+      <c r="J91" t="s">
+        <v>291</v>
+      </c>
+      <c r="K91">
         <v>0.8092490453966907</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>0.7277660536629484</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>0.65</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E92">
         <v>209432</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G92" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="H92" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="I92" t="s">
-        <v>178</v>
-      </c>
-      <c r="J92">
+        <v>249</v>
+      </c>
+      <c r="J92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92">
         <v>0.8519853699530158</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>0.7283835383962665</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>0.645</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>167408</v>
       </c>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="I93" t="s">
-        <v>176</v>
-      </c>
-      <c r="J93">
+        <v>240</v>
+      </c>
+      <c r="J93" t="s">
+        <v>222</v>
+      </c>
+      <c r="K93">
         <v>0.8282220682404664</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>0.8167281026777188</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>0.719</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94">
         <v>70143</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G94" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="H94" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I94" t="s">
-        <v>338</v>
-      </c>
-      <c r="J94">
+        <v>175</v>
+      </c>
+      <c r="J94" t="s">
+        <v>346</v>
+      </c>
+      <c r="K94">
         <v>0.784112455982778</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>0.7922321513906145</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>0.67</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E95">
         <v>60306</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="H95" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="I95" t="s">
-        <v>247</v>
-      </c>
-      <c r="J95">
+        <v>286</v>
+      </c>
+      <c r="J95" t="s">
+        <v>236</v>
+      </c>
+      <c r="K95">
         <v>0.7512851125924452</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>0.7339292587998802</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>0.67</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E96">
         <v>48845</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G96" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H96" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I96" t="s">
-        <v>339</v>
-      </c>
-      <c r="J96">
+        <v>260</v>
+      </c>
+      <c r="J96" t="s">
+        <v>347</v>
+      </c>
+      <c r="K96">
         <v>0.699518886272904</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>0.7021855205120552</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>0.632</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E97">
         <v>133377</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H97" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="I97" t="s">
-        <v>340</v>
-      </c>
-      <c r="J97">
+        <v>306</v>
+      </c>
+      <c r="J97" t="s">
+        <v>348</v>
+      </c>
+      <c r="K97">
         <v>0.712896526387608</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>0.6396355819428805</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>0.575</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E98">
         <v>18938</v>
       </c>
       <c r="F98" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G98" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="I98" t="s">
-        <v>341</v>
-      </c>
-      <c r="J98">
+        <v>307</v>
+      </c>
+      <c r="J98" t="s">
+        <v>349</v>
+      </c>
+      <c r="K98">
         <v>0.631481677051431</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>0.6744641130029915</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>0.593</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99">
         <v>110141</v>
       </c>
       <c r="F99" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H99" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I99" t="s">
-        <v>213</v>
-      </c>
-      <c r="J99">
+        <v>196</v>
+      </c>
+      <c r="J99" t="s">
+        <v>273</v>
+      </c>
+      <c r="K99">
         <v>0.7981950409021163</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>0.5962086809589185</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>0.541</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100">
         <v>58715</v>
       </c>
       <c r="F100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="I100" t="s">
-        <v>342</v>
-      </c>
-      <c r="J100">
+        <v>148</v>
+      </c>
+      <c r="J100" t="s">
+        <v>350</v>
+      </c>
+      <c r="K100">
         <v>0.7309886741037214</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>0.7491851354173287</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>0.651</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E101">
         <v>87725</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="I101" t="s">
-        <v>290</v>
-      </c>
-      <c r="J101">
+        <v>243</v>
+      </c>
+      <c r="J101" t="s">
+        <v>300</v>
+      </c>
+      <c r="K101">
         <v>0.7674323168994015</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>0.671736353572341</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>0.608</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102">
         <v>18334</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="I102" t="s">
-        <v>292</v>
-      </c>
-      <c r="J102">
+        <v>308</v>
+      </c>
+      <c r="J102" t="s">
+        <v>302</v>
+      </c>
+      <c r="K102">
         <v>0.6706665212174103</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>0.7220062695924765</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>0.66</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103">
         <v>17214</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H103" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="I103" t="s">
-        <v>342</v>
-      </c>
-      <c r="J103">
+        <v>212</v>
+      </c>
+      <c r="J103" t="s">
+        <v>350</v>
+      </c>
+      <c r="K103">
         <v>0.7405600092947601</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>0.6082142467546635</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>0.527</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104">
         <v>11726</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G104" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="I104" t="s">
-        <v>253</v>
-      </c>
-      <c r="J104">
+        <v>250</v>
+      </c>
+      <c r="J104" t="s">
+        <v>242</v>
+      </c>
+      <c r="K104">
         <v>0.7207914037182331</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>0.6756709654932032</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>0.607</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>40017</v>
       </c>
       <c r="F105" t="s">
+        <v>154</v>
+      </c>
+      <c r="G105" t="s">
         <v>209</v>
       </c>
-      <c r="G105" t="s">
-        <v>217</v>
-      </c>
       <c r="H105" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="I105" t="s">
-        <v>316</v>
-      </c>
-      <c r="J105">
+        <v>156</v>
+      </c>
+      <c r="J105" t="s">
+        <v>326</v>
+      </c>
+      <c r="K105">
         <v>0.8241247469825325</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>0.6519699812382739</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>0.581</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>187018</v>
       </c>
       <c r="F106" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="G106" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="H106" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="I106" t="s">
-        <v>250</v>
-      </c>
-      <c r="J106">
+        <v>248</v>
+      </c>
+      <c r="J106" t="s">
+        <v>200</v>
+      </c>
+      <c r="K106">
         <v>0.8546610486691121</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>0.7865407201939175</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>0.678</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107">
         <v>229059</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G107" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H107" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I107" t="s">
-        <v>324</v>
-      </c>
-      <c r="J107">
+        <v>309</v>
+      </c>
+      <c r="J107" t="s">
+        <v>333</v>
+      </c>
+      <c r="K107">
         <v>0.6488153707123492</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>0.8148734346426547</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>0.73</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>49648</v>
       </c>
       <c r="F108" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="G108" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H108" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
-      </c>
-      <c r="J108">
+        <v>226</v>
+      </c>
+      <c r="J108" t="s">
+        <v>227</v>
+      </c>
+      <c r="K108">
         <v>0.7124758298420883</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>0.6076556694999978</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>0.529</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>5095</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G109" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H109" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="I109" t="s">
-        <v>322</v>
-      </c>
-      <c r="J109">
+        <v>171</v>
+      </c>
+      <c r="J109" t="s">
+        <v>195</v>
+      </c>
+      <c r="K109">
         <v>0.7422963689892051</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>0.655534966161779</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>0.574</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110">
         <v>5553</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G110" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H110" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="I110" t="s">
-        <v>343</v>
-      </c>
-      <c r="J110">
+        <v>310</v>
+      </c>
+      <c r="J110" t="s">
+        <v>351</v>
+      </c>
+      <c r="K110">
         <v>0.6706284891049883</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>0.6824337585868497</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>0.615</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111">
         <v>140271</v>
       </c>
       <c r="F111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I111" t="s">
-        <v>152</v>
-      </c>
-      <c r="J111">
+        <v>153</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+      <c r="K111">
         <v>0.9327016988543605</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>0.6227264541689178</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>0.571</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E112">
         <v>80193</v>
       </c>
       <c r="F112" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G112" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="H112" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="I112" t="s">
-        <v>344</v>
-      </c>
-      <c r="J112">
+        <v>311</v>
+      </c>
+      <c r="J112" t="s">
+        <v>352</v>
+      </c>
+      <c r="K112">
         <v>0.6682254062075244</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>0.886327180956862</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>0.785</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113">
         <v>11302</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="H113" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="I113" t="s">
-        <v>261</v>
-      </c>
-      <c r="J113">
+        <v>200</v>
+      </c>
+      <c r="J113" t="s">
+        <v>247</v>
+      </c>
+      <c r="K113">
         <v>0.7625199079808883</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>0.6274487798186874</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>0.58</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114">
         <v>6603</v>
       </c>
       <c r="F114" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G114" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="H114" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I114" t="s">
-        <v>322</v>
-      </c>
-      <c r="J114">
+        <v>205</v>
+      </c>
+      <c r="J114" t="s">
+        <v>195</v>
+      </c>
+      <c r="K114">
         <v>0.7629865212782069</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115">
         <v>4895</v>
       </c>
       <c r="F115" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G115" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H115" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="I115" t="s">
-        <v>246</v>
-      </c>
-      <c r="J115">
+        <v>214</v>
+      </c>
+      <c r="J115" t="s">
+        <v>234</v>
+      </c>
+      <c r="K115">
         <v>0.7385086823289071</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>0.6914705361882851</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>0.597</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E116">
         <v>51794</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G116" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H116" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="I116" t="s">
-        <v>240</v>
-      </c>
-      <c r="J116">
+        <v>312</v>
+      </c>
+      <c r="J116" t="s">
+        <v>229</v>
+      </c>
+      <c r="K116">
         <v>0.7210680773834807</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>0.7160381644706951</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>0.633</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E117">
         <v>2585</v>
       </c>
       <c r="F117" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="G117" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="H117" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="I117" t="s">
-        <v>182</v>
-      </c>
-      <c r="J117">
+        <v>230</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+      <c r="K117">
         <v>0.8541586073500967</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>0.6972420837589377</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>0.645</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>4688</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>0.6602695292891069</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>0.606</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119">
         <v>2115</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I119" t="s">
-        <v>163</v>
-      </c>
-      <c r="J119">
+        <v>153</v>
+      </c>
+      <c r="J119" t="s">
+        <v>235</v>
+      </c>
+      <c r="K119">
         <v>0.8832151300236407</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>0.8015473887814313</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>0.737</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120">
         <v>7566</v>
       </c>
       <c r="F120" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G120" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H120" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="I120" t="s">
-        <v>147</v>
-      </c>
-      <c r="J120">
+        <v>177</v>
+      </c>
+      <c r="J120" t="s">
+        <v>183</v>
+      </c>
+      <c r="K120">
         <v>0.8046523922812583</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E121">
         <v>62490</v>
       </c>
       <c r="F121" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="G121" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H121" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="I121" t="s">
-        <v>319</v>
-      </c>
-      <c r="J121">
+        <v>225</v>
+      </c>
+      <c r="J121" t="s">
+        <v>329</v>
+      </c>
+      <c r="K121">
         <v>0.7533205312850056</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>0.8321513002364067</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>0.767</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122">
         <v>3030</v>
       </c>
       <c r="F122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H122" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I122" t="s">
-        <v>159</v>
-      </c>
-      <c r="J122">
+        <v>167</v>
+      </c>
+      <c r="J122" t="s">
+        <v>205</v>
+      </c>
+      <c r="K122">
         <v>0.8557755775577558</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>0.6722178165477135</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>0.554</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123">
         <v>5625</v>
       </c>
       <c r="F123" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G123" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H123" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="I123" t="s">
-        <v>345</v>
-      </c>
-      <c r="J123">
+        <v>313</v>
+      </c>
+      <c r="J123" t="s">
+        <v>353</v>
+      </c>
+      <c r="K123">
         <v>0.6424888888888889</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>0.7103856617058729</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>0.642</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124">
         <v>65599</v>
       </c>
       <c r="F124" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" t="s">
+        <v>202</v>
+      </c>
+      <c r="H124" t="s">
+        <v>182</v>
+      </c>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+      <c r="J124" t="s">
         <v>214</v>
       </c>
-      <c r="G124" t="s">
-        <v>262</v>
-      </c>
-      <c r="H124" t="s">
-        <v>266</v>
-      </c>
-      <c r="I124" t="s">
-        <v>230</v>
-      </c>
-      <c r="J124">
+      <c r="K124">
         <v>0.8070244973246543</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>0.8085808580858086</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>0.666</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E125">
         <v>42191</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G125" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H125" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="I125" t="s">
-        <v>275</v>
-      </c>
-      <c r="J125">
+        <v>215</v>
+      </c>
+      <c r="J125" t="s">
+        <v>286</v>
+      </c>
+      <c r="K125">
         <v>0.8166907634329597</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>0.5866666666666667</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>0.51</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E126">
         <v>41492</v>
       </c>
       <c r="F126" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="I126" t="s">
-        <v>302</v>
-      </c>
-      <c r="J126">
+        <v>204</v>
+      </c>
+      <c r="J126" t="s">
+        <v>312</v>
+      </c>
+      <c r="K126">
         <v>0.7659066808059384</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>0.7635787130901386</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>0.678</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E127">
         <v>179317</v>
       </c>
       <c r="F127" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="H127" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="I127" t="s">
-        <v>346</v>
-      </c>
-      <c r="J127">
+        <v>260</v>
+      </c>
+      <c r="J127" t="s">
+        <v>354</v>
+      </c>
+      <c r="K127">
         <v>0.7110870692683906</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>0.7689554644355431</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>0.712</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128">
         <v>50326</v>
       </c>
       <c r="F128" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G128" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="I128" t="s">
-        <v>158</v>
-      </c>
-      <c r="J128">
+        <v>196</v>
+      </c>
+      <c r="J128" t="s">
+        <v>256</v>
+      </c>
+      <c r="K128">
         <v>0.8201128641258991</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>0.7119685722548925</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>0.623</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E129">
         <v>13497</v>
       </c>
       <c r="F129" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="G129" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="I129" t="s">
-        <v>342</v>
-      </c>
-      <c r="J129">
+        <v>204</v>
+      </c>
+      <c r="J129" t="s">
+        <v>350</v>
+      </c>
+      <c r="K129">
         <v>0.7166036897088242</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>0.6604393336939609</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>0.597</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E130">
         <v>801</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>0.7899892699598617</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>0.736</v>
       </c>
     </row>
